--- a/configs/microservice/bff-service/static/docs/url_import_template.xlsx
+++ b/configs/microservice/bff-service/static/docs/url_import_template.xlsx
@@ -22,7 +22,7 @@
     <t>地址</t>
   </si>
   <si>
-    <t>https://baike.baidu.com/item/%E5%B7%B4%E8%A5%BF/5422?fromModule=lemma_search-box</t>
+    <t>https://edu.hangzhou.gov.cn/art/2024/6/1/art_1228921945_58943483.html</t>
   </si>
 </sst>
 </file>
@@ -44,6 +44,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
@@ -54,14 +62,6 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -557,7 +557,7 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -673,29 +673,28 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1026,7 +1025,7 @@
   <dimension ref="A1:J65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
@@ -1041,31 +1040,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="5"/>
@@ -1073,327 +1071,324 @@
       <c r="C3" s="7"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
-      <c r="F3" s="8"/>
-      <c r="I3" s="8"/>
+      <c r="F3" s="1"/>
+      <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="2"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
       <c r="C5" s="4"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="2"/>
-      <c r="B6" s="1"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="2"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="2"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="9"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="9"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="2"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="2"/>
-      <c r="B10" s="1"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="2"/>
       <c r="C10" s="4"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
       <c r="C11" s="4"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="2"/>
-      <c r="B12" s="1"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="2"/>
       <c r="C12" s="4"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="2"/>
-      <c r="B13" s="1"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="2"/>
       <c r="C13" s="4"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
       <c r="C14" s="4"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="2"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
     </row>
     <row r="16" ht="14.95" spans="1:5">
-      <c r="A16" s="2"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
     </row>
     <row r="18" ht="14.95" spans="1:5">
-      <c r="A18" s="2"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="2"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="2"/>
-      <c r="B21" s="1"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="2"/>
       <c r="C21" s="4"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="2"/>
-      <c r="B22" s="1"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="2"/>
       <c r="C22" s="4"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
       <c r="C23" s="4"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="2"/>
-      <c r="B24" s="1"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="2"/>
       <c r="C24" s="4"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="2"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="2"/>
-      <c r="B27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="2"/>
+      <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="2"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="2"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="1"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="2"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="1"/>
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="2"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="2"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="1"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="2"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="2"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="1"/>
+      <c r="A32" s="3"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="2"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="1"/>
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="2"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="2"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="1"/>
+      <c r="A34" s="3"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="2"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="2"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="1"/>
+      <c r="A35" s="3"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="2"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="1"/>
-      <c r="D36" s="1"/>
+      <c r="A36" s="2"/>
+      <c r="D36" s="2"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="2"/>
-      <c r="D37" s="1"/>
+      <c r="A37" s="3"/>
+      <c r="D37" s="2"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="2"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="1"/>
-      <c r="F38" s="1"/>
+      <c r="A38" s="3"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="2"/>
+      <c r="F38" s="2"/>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="1"/>
-      <c r="C39" s="9"/>
+      <c r="A39" s="2"/>
+      <c r="C39" s="8"/>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="2"/>
-      <c r="C40" s="9"/>
+      <c r="A40" s="3"/>
+      <c r="C40" s="8"/>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="2"/>
+      <c r="A41" s="3"/>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="2"/>
+      <c r="A42" s="3"/>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="1"/>
+      <c r="A43" s="2"/>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="2"/>
+      <c r="A44" s="3"/>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="2"/>
+      <c r="A45" s="3"/>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="1"/>
+      <c r="A46" s="2"/>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="2"/>
+      <c r="A47" s="3"/>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="2"/>
+      <c r="A48" s="3"/>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="1"/>
+      <c r="A49" s="2"/>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="2"/>
+      <c r="A50" s="3"/>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="2"/>
-    </row>
-    <row r="52" s="8" customFormat="1" spans="1:1">
-      <c r="A52" s="1"/>
+      <c r="A51" s="3"/>
+    </row>
+    <row r="52" s="1" customFormat="1" spans="1:1">
+      <c r="A52" s="2"/>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="2"/>
+      <c r="A53" s="3"/>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="2"/>
+      <c r="A54" s="3"/>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="2"/>
+      <c r="A55" s="3"/>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="1"/>
+      <c r="A56" s="2"/>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="2"/>
+      <c r="A57" s="3"/>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="2"/>
-      <c r="C58" s="11"/>
+      <c r="A58" s="3"/>
+      <c r="C58" s="10"/>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="1"/>
+      <c r="A59" s="2"/>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" s="2"/>
+      <c r="A60" s="3"/>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" s="2"/>
+      <c r="A61" s="3"/>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" s="1"/>
+      <c r="A62" s="2"/>
     </row>
     <row r="63" spans="1:1">
-      <c r="A63" s="2"/>
+      <c r="A63" s="3"/>
     </row>
     <row r="64" spans="1:1">
-      <c r="A64" s="2"/>
+      <c r="A64" s="3"/>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="1"/>
+      <c r="A65" s="2"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://baike.baidu.com/item/%E5%B7%B4%E8%A5%BF/5422?fromModule=lemma_search-box"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
